--- a/文档2：小米广告实时交易平台广告位列表.xlsx
+++ b/文档2：小米广告实时交易平台广告位列表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guo/Documents/2016/工作/max/我的/Max对外文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyuyang/Documents/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="广告位" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -849,7 +849,8 @@
     <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="3"/>
